--- a/data/pca/factorExposure/factorExposure_2015-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02349940194637313</v>
+        <v>0.01293138305817415</v>
       </c>
       <c r="C2">
-        <v>0.02433258432631388</v>
+        <v>0.05148952338033713</v>
       </c>
       <c r="D2">
-        <v>0.1482710269525139</v>
+        <v>0.1193529751855807</v>
       </c>
       <c r="E2">
-        <v>-0.06820772294413595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.05005025573996691</v>
+      </c>
+      <c r="F2">
+        <v>-0.03851183588013513</v>
+      </c>
+      <c r="G2">
+        <v>-0.1446961789420528</v>
+      </c>
+      <c r="H2">
+        <v>-0.06713730628281855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04768306572835963</v>
+        <v>0.02259273885369387</v>
       </c>
       <c r="C4">
-        <v>0.07304302943087287</v>
+        <v>0.1102462529721126</v>
       </c>
       <c r="D4">
-        <v>0.1054335172572487</v>
+        <v>0.1159926376208517</v>
       </c>
       <c r="E4">
-        <v>-0.1202634347824456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0499544543602156</v>
+      </c>
+      <c r="F4">
+        <v>-0.09649511272203871</v>
+      </c>
+      <c r="G4">
+        <v>-0.03258893738411463</v>
+      </c>
+      <c r="H4">
+        <v>0.06904266561973597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02821086333766284</v>
+        <v>0.03306283464943335</v>
       </c>
       <c r="C6">
-        <v>0.01622371823754019</v>
+        <v>0.03682531919040839</v>
       </c>
       <c r="D6">
-        <v>0.1142189732923577</v>
+        <v>0.09972897197455827</v>
       </c>
       <c r="E6">
-        <v>-0.07589008021539671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.08837989611544972</v>
+      </c>
+      <c r="F6">
+        <v>-0.04396763349707059</v>
+      </c>
+      <c r="G6">
+        <v>0.001911408560790667</v>
+      </c>
+      <c r="H6">
+        <v>-0.01189487742118279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001768808777141887</v>
+        <v>0.007463009294736618</v>
       </c>
       <c r="C7">
-        <v>0.02504535521513587</v>
+        <v>0.04067938053865152</v>
       </c>
       <c r="D7">
-        <v>0.1114969606456923</v>
+        <v>0.09131616612793599</v>
       </c>
       <c r="E7">
-        <v>-0.04073422708684853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07907162886419149</v>
+      </c>
+      <c r="F7">
+        <v>-0.01150997220936091</v>
+      </c>
+      <c r="G7">
+        <v>0.004697255362336915</v>
+      </c>
+      <c r="H7">
+        <v>0.02270351780189715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003113244054085312</v>
+        <v>-0.004533842919833816</v>
       </c>
       <c r="C8">
-        <v>0.02881761403191141</v>
+        <v>0.03893079415198369</v>
       </c>
       <c r="D8">
-        <v>0.0777896465243544</v>
+        <v>0.05899426090456537</v>
       </c>
       <c r="E8">
-        <v>-0.05019605831620182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04953460107014215</v>
+      </c>
+      <c r="F8">
+        <v>-0.04713193268248286</v>
+      </c>
+      <c r="G8">
+        <v>-0.07690994930371979</v>
+      </c>
+      <c r="H8">
+        <v>0.03247341962638806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03730380880204633</v>
+        <v>0.0166811358824634</v>
       </c>
       <c r="C9">
-        <v>0.0642630542892715</v>
+        <v>0.09040234886708547</v>
       </c>
       <c r="D9">
-        <v>0.1089753556520619</v>
+        <v>0.1013040360896949</v>
       </c>
       <c r="E9">
-        <v>-0.09853474551328316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.04213137352126481</v>
+      </c>
+      <c r="F9">
+        <v>-0.06329907441614188</v>
+      </c>
+      <c r="G9">
+        <v>-0.01159426201166845</v>
+      </c>
+      <c r="H9">
+        <v>0.02450474503232359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1855291139698032</v>
+        <v>0.2428061207203609</v>
       </c>
       <c r="C10">
-        <v>-0.1690514683754479</v>
+        <v>-0.09726925076762935</v>
       </c>
       <c r="D10">
-        <v>-0.03818952363890626</v>
+        <v>-0.01411141393566737</v>
       </c>
       <c r="E10">
-        <v>-0.03784421268618204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02576402367492172</v>
+      </c>
+      <c r="F10">
+        <v>-0.03970567638778784</v>
+      </c>
+      <c r="G10">
+        <v>0.008781897966339065</v>
+      </c>
+      <c r="H10">
+        <v>-0.006047262212116853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01701397371271317</v>
+        <v>0.01198098897617554</v>
       </c>
       <c r="C11">
-        <v>0.04189918505132426</v>
+        <v>0.05997315002731787</v>
       </c>
       <c r="D11">
-        <v>0.04745226435236068</v>
+        <v>0.03884678881208674</v>
       </c>
       <c r="E11">
-        <v>0.006914220267307244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03754416269594119</v>
+      </c>
+      <c r="F11">
+        <v>0.01197642816653264</v>
+      </c>
+      <c r="G11">
+        <v>0.003032917533272196</v>
+      </c>
+      <c r="H11">
+        <v>0.02069432756268349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01591359346304337</v>
+        <v>0.01219917901301221</v>
       </c>
       <c r="C12">
-        <v>0.04268434875602398</v>
+        <v>0.05151476985663966</v>
       </c>
       <c r="D12">
-        <v>0.06061089994706843</v>
+        <v>0.04506996522351234</v>
       </c>
       <c r="E12">
-        <v>-0.006709229656670854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03374877658269534</v>
+      </c>
+      <c r="F12">
+        <v>0.01632068071214623</v>
+      </c>
+      <c r="G12">
+        <v>0.01797883626452246</v>
+      </c>
+      <c r="H12">
+        <v>-0.01461848619941197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008169184021354876</v>
+        <v>0.004075383283023715</v>
       </c>
       <c r="C13">
-        <v>0.02728621898897591</v>
+        <v>0.05842010364960176</v>
       </c>
       <c r="D13">
-        <v>0.1299547650422929</v>
+        <v>0.1533292372853943</v>
       </c>
       <c r="E13">
-        <v>-0.07881795216450253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.07458921001600483</v>
+      </c>
+      <c r="F13">
+        <v>-0.03938423779969916</v>
+      </c>
+      <c r="G13">
+        <v>-0.06048918614436546</v>
+      </c>
+      <c r="H13">
+        <v>-0.07496926183848095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005918546137883826</v>
+        <v>0.004809260762728582</v>
       </c>
       <c r="C14">
-        <v>0.01885641837952285</v>
+        <v>0.03485994606391722</v>
       </c>
       <c r="D14">
-        <v>0.0787587465349265</v>
+        <v>0.08669561208993877</v>
       </c>
       <c r="E14">
-        <v>-0.03087242734463492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.08474184457546739</v>
+      </c>
+      <c r="F14">
+        <v>-0.02693347407767551</v>
+      </c>
+      <c r="G14">
+        <v>-0.02320878894163558</v>
+      </c>
+      <c r="H14">
+        <v>-0.03472086973795456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003002629097679676</v>
+        <v>-0.003291798674729489</v>
       </c>
       <c r="C15">
-        <v>0.01366086771428537</v>
+        <v>0.0302261521210765</v>
       </c>
       <c r="D15">
-        <v>0.04662018629673336</v>
+        <v>0.05822414142609617</v>
       </c>
       <c r="E15">
-        <v>-0.01153841860739863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.03627975789892926</v>
+      </c>
+      <c r="F15">
+        <v>-0.007907880969300075</v>
+      </c>
+      <c r="G15">
+        <v>-0.02945485553685776</v>
+      </c>
+      <c r="H15">
+        <v>0.01103862506619867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01654113661972164</v>
+        <v>0.01120724311201815</v>
       </c>
       <c r="C16">
-        <v>0.03836598672890359</v>
+        <v>0.05247516606697892</v>
       </c>
       <c r="D16">
-        <v>0.05311302975652981</v>
+        <v>0.04196135798782739</v>
       </c>
       <c r="E16">
-        <v>-0.00525571409014372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0396143031631262</v>
+      </c>
+      <c r="F16">
+        <v>0.006819336100757225</v>
+      </c>
+      <c r="G16">
+        <v>0.01344510311494557</v>
+      </c>
+      <c r="H16">
+        <v>0.009165147621306321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0007984710551296962</v>
+        <v>-0.002448930989832249</v>
       </c>
       <c r="C19">
-        <v>0.02014590827629506</v>
+        <v>0.01551860721410499</v>
       </c>
       <c r="D19">
-        <v>0.07192658314511938</v>
+        <v>0.0442781088603217</v>
       </c>
       <c r="E19">
-        <v>-0.04803769086199086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0009636082461737832</v>
+      </c>
+      <c r="F19">
+        <v>-0.01063030391781377</v>
+      </c>
+      <c r="G19">
+        <v>-0.01989624373457106</v>
+      </c>
+      <c r="H19">
+        <v>-0.02096716745855065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003125822178320116</v>
+        <v>0.005879236209694903</v>
       </c>
       <c r="C20">
-        <v>0.02599717982802662</v>
+        <v>0.04369089293063848</v>
       </c>
       <c r="D20">
-        <v>0.0707639420582144</v>
+        <v>0.07935446987505501</v>
       </c>
       <c r="E20">
-        <v>-0.05374447212602443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04830638402651553</v>
+      </c>
+      <c r="F20">
+        <v>-0.02645572545113155</v>
+      </c>
+      <c r="G20">
+        <v>0.007013298215226732</v>
+      </c>
+      <c r="H20">
+        <v>0.02912009818087473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008599633877380258</v>
+        <v>0.004772750314611028</v>
       </c>
       <c r="C21">
-        <v>0.03193165754482916</v>
+        <v>0.04907599474573977</v>
       </c>
       <c r="D21">
-        <v>0.1220626990329076</v>
+        <v>0.1121341063797484</v>
       </c>
       <c r="E21">
-        <v>-0.1117178576814771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.06405613319221647</v>
+      </c>
+      <c r="F21">
+        <v>-0.08646480960099232</v>
+      </c>
+      <c r="G21">
+        <v>-0.07016153705324296</v>
+      </c>
+      <c r="H21">
+        <v>-0.1002903226776087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002695947571967677</v>
+        <v>-0.005410627383021273</v>
       </c>
       <c r="C22">
-        <v>0.05394781852541975</v>
+        <v>0.08099794665663398</v>
       </c>
       <c r="D22">
-        <v>0.2119389287209014</v>
+        <v>0.2165455119015767</v>
       </c>
       <c r="E22">
-        <v>-0.09072630569279101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04785898537059865</v>
+      </c>
+      <c r="F22">
+        <v>-0.03849287425461104</v>
+      </c>
+      <c r="G22">
+        <v>-0.2563119322263666</v>
+      </c>
+      <c r="H22">
+        <v>0.1113422788755714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003092798154669116</v>
+        <v>-0.002351021209536276</v>
       </c>
       <c r="C23">
-        <v>0.0541919896770504</v>
+        <v>0.08263254044066272</v>
       </c>
       <c r="D23">
-        <v>0.2105185026436892</v>
+        <v>0.220194837395399</v>
       </c>
       <c r="E23">
-        <v>-0.09078807834489334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04467857758235089</v>
+      </c>
+      <c r="F23">
+        <v>-0.04139657840167617</v>
+      </c>
+      <c r="G23">
+        <v>-0.2495700111677992</v>
+      </c>
+      <c r="H23">
+        <v>0.1054861029598545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02276527152444835</v>
+        <v>0.01243244649065233</v>
       </c>
       <c r="C24">
-        <v>0.06039214731111357</v>
+        <v>0.07025598139709935</v>
       </c>
       <c r="D24">
-        <v>0.06752587751173002</v>
+        <v>0.04373965962229396</v>
       </c>
       <c r="E24">
-        <v>-0.009741545482001223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04673801301559804</v>
+      </c>
+      <c r="F24">
+        <v>0.006224509357495118</v>
+      </c>
+      <c r="G24">
+        <v>-0.004000583678627712</v>
+      </c>
+      <c r="H24">
+        <v>0.009040793442080895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02273355068124816</v>
+        <v>0.01679656729898826</v>
       </c>
       <c r="C25">
-        <v>0.0515544548850848</v>
+        <v>0.06467308933581163</v>
       </c>
       <c r="D25">
-        <v>0.05937015922473401</v>
+        <v>0.04845594683330201</v>
       </c>
       <c r="E25">
-        <v>-0.01604523079860825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03191681718419016</v>
+      </c>
+      <c r="F25">
+        <v>0.004625396032717963</v>
+      </c>
+      <c r="G25">
+        <v>0.01063746052821042</v>
+      </c>
+      <c r="H25">
+        <v>0.007614596784666049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009293820400302551</v>
+        <v>0.01788708145345358</v>
       </c>
       <c r="C26">
-        <v>0.01748364686826354</v>
+        <v>0.0308773574228</v>
       </c>
       <c r="D26">
-        <v>0.06547168988736034</v>
+        <v>0.05313295810544291</v>
       </c>
       <c r="E26">
-        <v>-0.03763354908853091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.05945371349077183</v>
+      </c>
+      <c r="F26">
+        <v>-0.04432195801460829</v>
+      </c>
+      <c r="G26">
+        <v>-0.03248176310372652</v>
+      </c>
+      <c r="H26">
+        <v>-0.006546482496592842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2644226626325567</v>
+        <v>0.3115025495852378</v>
       </c>
       <c r="C28">
-        <v>-0.1877428724567695</v>
+        <v>-0.09679418465183066</v>
       </c>
       <c r="D28">
-        <v>-0.009752796308792522</v>
+        <v>-0.01852916929398393</v>
       </c>
       <c r="E28">
-        <v>-0.03937704296380137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05505750091732452</v>
+      </c>
+      <c r="F28">
+        <v>-0.04589957181349062</v>
+      </c>
+      <c r="G28">
+        <v>-0.06503931125356843</v>
+      </c>
+      <c r="H28">
+        <v>0.008505186075525521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0008762917261373524</v>
+        <v>0.003551495480726778</v>
       </c>
       <c r="C29">
-        <v>0.02221397529730472</v>
+        <v>0.04156886915332596</v>
       </c>
       <c r="D29">
-        <v>0.07552673803971273</v>
+        <v>0.09133690709351737</v>
       </c>
       <c r="E29">
-        <v>-0.03940552579831082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.09688196866703108</v>
+      </c>
+      <c r="F29">
+        <v>-0.03173174177257653</v>
+      </c>
+      <c r="G29">
+        <v>-0.0178550300280251</v>
+      </c>
+      <c r="H29">
+        <v>-0.04300926169797116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02930261943886309</v>
+        <v>0.018833079127211</v>
       </c>
       <c r="C30">
-        <v>0.06962122500789177</v>
+        <v>0.0968258826563788</v>
       </c>
       <c r="D30">
-        <v>0.1503948741638621</v>
+        <v>0.1189498264446808</v>
       </c>
       <c r="E30">
-        <v>-0.06409974557304068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08674842713674115</v>
+      </c>
+      <c r="F30">
+        <v>-0.01897874017704659</v>
+      </c>
+      <c r="G30">
+        <v>-0.02845870124366797</v>
+      </c>
+      <c r="H30">
+        <v>0.04366314586714645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03692325844649824</v>
+        <v>0.01230467294080748</v>
       </c>
       <c r="C31">
-        <v>0.0839317574562376</v>
+        <v>0.09503137961612959</v>
       </c>
       <c r="D31">
-        <v>0.05536921567165514</v>
+        <v>0.03459942679023385</v>
       </c>
       <c r="E31">
-        <v>-0.02690974705660687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02648160900044465</v>
+      </c>
+      <c r="F31">
+        <v>-0.01714721606018013</v>
+      </c>
+      <c r="G31">
+        <v>-0.01860796682876757</v>
+      </c>
+      <c r="H31">
+        <v>0.003144604343895278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01649606646430255</v>
+        <v>0.01379646027559001</v>
       </c>
       <c r="C32">
-        <v>0.04072267442766388</v>
+        <v>0.05052893807657974</v>
       </c>
       <c r="D32">
-        <v>0.08603575683645327</v>
+        <v>0.08067306504323883</v>
       </c>
       <c r="E32">
-        <v>-0.07607710064057153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01560377760404541</v>
+      </c>
+      <c r="F32">
+        <v>-0.0479759090775067</v>
+      </c>
+      <c r="G32">
+        <v>-0.03030997734488057</v>
+      </c>
+      <c r="H32">
+        <v>-0.02637678530177414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007803081153105681</v>
+        <v>0.009052388505815944</v>
       </c>
       <c r="C33">
-        <v>0.04093582147178386</v>
+        <v>0.06255581468847903</v>
       </c>
       <c r="D33">
-        <v>0.108489267326678</v>
+        <v>0.1071405830935901</v>
       </c>
       <c r="E33">
-        <v>-0.0639943561063063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05902806634830859</v>
+      </c>
+      <c r="F33">
+        <v>-0.02713577330302598</v>
+      </c>
+      <c r="G33">
+        <v>-0.01285674657237237</v>
+      </c>
+      <c r="H33">
+        <v>8.416956357474075e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02079296502382775</v>
+        <v>0.01108023621789981</v>
       </c>
       <c r="C34">
-        <v>0.06099534455917686</v>
+        <v>0.06365922526180028</v>
       </c>
       <c r="D34">
-        <v>0.06281262411467826</v>
+        <v>0.02440072311221787</v>
       </c>
       <c r="E34">
-        <v>0.03517196335362255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03866373588065326</v>
+      </c>
+      <c r="F34">
+        <v>0.03988007969039751</v>
+      </c>
+      <c r="G34">
+        <v>-0.001729163749687893</v>
+      </c>
+      <c r="H34">
+        <v>-0.002791583528000055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-8.467301676660341e-05</v>
+        <v>0.004209676068933081</v>
       </c>
       <c r="C35">
-        <v>-0.0001894508810781678</v>
+        <v>0.01432191935027291</v>
       </c>
       <c r="D35">
-        <v>-0.0002044304162035577</v>
+        <v>0.03326144770505041</v>
       </c>
       <c r="E35">
-        <v>-0.0001563368307797628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01874461005678222</v>
+      </c>
+      <c r="F35">
+        <v>-0.0164004011955929</v>
+      </c>
+      <c r="G35">
+        <v>0.0002714222399793145</v>
+      </c>
+      <c r="H35">
+        <v>-0.006265270068750402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007303980379429116</v>
+        <v>0.01130516793534997</v>
       </c>
       <c r="C36">
-        <v>0.007853362303550616</v>
+        <v>0.02298487998435041</v>
       </c>
       <c r="D36">
-        <v>0.06217122974936225</v>
+        <v>0.06445987506197748</v>
       </c>
       <c r="E36">
-        <v>-0.06098954558462129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.04741077122602032</v>
+      </c>
+      <c r="F36">
+        <v>-0.0499349921132705</v>
+      </c>
+      <c r="G36">
+        <v>-0.02111262083102754</v>
+      </c>
+      <c r="H36">
+        <v>-0.002521405384068032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006759117637210568</v>
+        <v>0.01205684000478538</v>
       </c>
       <c r="C38">
-        <v>0.008155439171752548</v>
+        <v>0.02778245699818317</v>
       </c>
       <c r="D38">
-        <v>0.09034334078344221</v>
+        <v>0.08567257893653647</v>
       </c>
       <c r="E38">
-        <v>-0.03238697035522404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03462564226009297</v>
+      </c>
+      <c r="F38">
+        <v>-0.003089716162989775</v>
+      </c>
+      <c r="G38">
+        <v>-0.03968581329659397</v>
+      </c>
+      <c r="H38">
+        <v>0.0307600782204945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01630223782081199</v>
+        <v>0.008698345355357528</v>
       </c>
       <c r="C39">
-        <v>0.0615722048699377</v>
+        <v>0.08602347699596613</v>
       </c>
       <c r="D39">
-        <v>0.1130036519400872</v>
+        <v>0.08610976667627393</v>
       </c>
       <c r="E39">
-        <v>-0.02342262656248987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08280057502476754</v>
+      </c>
+      <c r="F39">
+        <v>0.006585869778790915</v>
+      </c>
+      <c r="G39">
+        <v>-0.0009357597440328053</v>
+      </c>
+      <c r="H39">
+        <v>0.008157302932031322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01669925132826829</v>
+        <v>0.01336555139769322</v>
       </c>
       <c r="C40">
-        <v>0.02607930968197521</v>
+        <v>0.04282471695662479</v>
       </c>
       <c r="D40">
-        <v>0.1211631380471137</v>
+        <v>0.08518278334461835</v>
       </c>
       <c r="E40">
-        <v>-0.01698367185160586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07174423557202404</v>
+      </c>
+      <c r="F40">
+        <v>0.02781327568969479</v>
+      </c>
+      <c r="G40">
+        <v>-0.08593226287781594</v>
+      </c>
+      <c r="H40">
+        <v>-0.03367915008430943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01033637115542043</v>
+        <v>0.01847568479661308</v>
       </c>
       <c r="C41">
-        <v>0.004514508112990315</v>
+        <v>0.02229763869791103</v>
       </c>
       <c r="D41">
-        <v>0.03327842610635398</v>
+        <v>0.04289985750976748</v>
       </c>
       <c r="E41">
-        <v>-0.03416162005077513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01070381491366683</v>
+      </c>
+      <c r="F41">
+        <v>-0.02228100468037983</v>
+      </c>
+      <c r="G41">
+        <v>-0.0125993236195332</v>
+      </c>
+      <c r="H41">
+        <v>0.003299488070340969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001179719132921398</v>
+        <v>0.009919747534024343</v>
       </c>
       <c r="C43">
-        <v>0.002486406492119624</v>
+        <v>0.01656415943698022</v>
       </c>
       <c r="D43">
-        <v>0.04702293275346269</v>
+        <v>0.05018361811508924</v>
       </c>
       <c r="E43">
-        <v>-0.03270874266666882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02548121428327676</v>
+      </c>
+      <c r="F43">
+        <v>-0.02212378095032295</v>
+      </c>
+      <c r="G43">
+        <v>-0.01014342384455883</v>
+      </c>
+      <c r="H43">
+        <v>0.01603832542121947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01912989995842766</v>
+        <v>0.01129052734710899</v>
       </c>
       <c r="C44">
-        <v>0.02576414185278618</v>
+        <v>0.04955390151196035</v>
       </c>
       <c r="D44">
-        <v>0.09607288115649978</v>
+        <v>0.09800827063117212</v>
       </c>
       <c r="E44">
-        <v>-0.08074936003077994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06708753335686318</v>
+      </c>
+      <c r="F44">
+        <v>-0.03823115386615309</v>
+      </c>
+      <c r="G44">
+        <v>-0.04675934186804045</v>
+      </c>
+      <c r="H44">
+        <v>0.02235760412208865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003961906392502512</v>
+        <v>-0.0009276541237189626</v>
       </c>
       <c r="C46">
-        <v>0.03119383521301035</v>
+        <v>0.04298399046958046</v>
       </c>
       <c r="D46">
-        <v>0.08303720327856112</v>
+        <v>0.06805870043227913</v>
       </c>
       <c r="E46">
-        <v>-0.04064619162263426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07304232984245987</v>
+      </c>
+      <c r="F46">
+        <v>-0.03240289879696827</v>
+      </c>
+      <c r="G46">
+        <v>-0.02893122624455467</v>
+      </c>
+      <c r="H46">
+        <v>-0.003557257079432595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07732645085095331</v>
+        <v>0.03289384991293338</v>
       </c>
       <c r="C47">
-        <v>0.110220697721649</v>
+        <v>0.1263954046315696</v>
       </c>
       <c r="D47">
-        <v>0.06463996041498817</v>
+        <v>0.02302205749888472</v>
       </c>
       <c r="E47">
-        <v>-0.03325555469383754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0009112659058739943</v>
+      </c>
+      <c r="F47">
+        <v>0.007130151825400741</v>
+      </c>
+      <c r="G47">
+        <v>0.01670726588390534</v>
+      </c>
+      <c r="H47">
+        <v>0.007461473502935479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01042431832522688</v>
+        <v>0.01456608656279265</v>
       </c>
       <c r="C48">
-        <v>0.01742706157888097</v>
+        <v>0.03411967391985521</v>
       </c>
       <c r="D48">
-        <v>0.06774336664054155</v>
+        <v>0.0685776023019125</v>
       </c>
       <c r="E48">
-        <v>-0.06579237422514327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04145155747194364</v>
+      </c>
+      <c r="F48">
+        <v>-0.05549659275685617</v>
+      </c>
+      <c r="G48">
+        <v>-0.03106740513733601</v>
+      </c>
+      <c r="H48">
+        <v>0.006280484047412374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.001689418512753998</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0007470049189570655</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0006148782555669588</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0009772873197931376</v>
+      </c>
+      <c r="F49">
+        <v>-0.001243005315286329</v>
+      </c>
+      <c r="G49">
+        <v>0.001638006380794346</v>
+      </c>
+      <c r="H49">
+        <v>-0.00122478390769756</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03311362934347074</v>
+        <v>0.01529057803850279</v>
       </c>
       <c r="C50">
-        <v>0.05790068268525135</v>
+        <v>0.07585689607777164</v>
       </c>
       <c r="D50">
-        <v>0.06130271207912567</v>
+        <v>0.04575429774028365</v>
       </c>
       <c r="E50">
-        <v>-0.02081651257171108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02646328613348439</v>
+      </c>
+      <c r="F50">
+        <v>-0.01008158220415274</v>
+      </c>
+      <c r="G50">
+        <v>-0.02355475876029041</v>
+      </c>
+      <c r="H50">
+        <v>0.01512316166912666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004831320540611944</v>
+        <v>-0.003451350068335888</v>
       </c>
       <c r="C51">
-        <v>0.007249349411839891</v>
+        <v>0.01880121834168342</v>
       </c>
       <c r="D51">
-        <v>0.06454573199167647</v>
+        <v>0.04407827846654121</v>
       </c>
       <c r="E51">
-        <v>-0.02941592673178247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05073871008391674</v>
+      </c>
+      <c r="F51">
+        <v>-0.03417489209194899</v>
+      </c>
+      <c r="G51">
+        <v>-0.05110984174849423</v>
+      </c>
+      <c r="H51">
+        <v>-0.007301380972614235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1112785031511286</v>
+        <v>0.06264359250970797</v>
       </c>
       <c r="C53">
-        <v>0.1272012140958786</v>
+        <v>0.1607113877255786</v>
       </c>
       <c r="D53">
-        <v>-0.006223440946063006</v>
+        <v>-0.01762900153662948</v>
       </c>
       <c r="E53">
-        <v>-0.0440905732870748</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0318252512004232</v>
+      </c>
+      <c r="F53">
+        <v>-0.04432120693797841</v>
+      </c>
+      <c r="G53">
+        <v>-0.008226173808872384</v>
+      </c>
+      <c r="H53">
+        <v>0.01171809159184485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.009771163780368063</v>
+        <v>0.01252061701126876</v>
       </c>
       <c r="C54">
-        <v>0.02370336303428286</v>
+        <v>0.04089734456009753</v>
       </c>
       <c r="D54">
-        <v>0.0910599746279326</v>
+        <v>0.07383698019795179</v>
       </c>
       <c r="E54">
-        <v>-0.02680195449262253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03977349706732606</v>
+      </c>
+      <c r="F54">
+        <v>-0.004824101183872729</v>
+      </c>
+      <c r="G54">
+        <v>-0.03415410182037521</v>
+      </c>
+      <c r="H54">
+        <v>0.0214733646739208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09303011243915388</v>
+        <v>0.04424486467954857</v>
       </c>
       <c r="C55">
-        <v>0.1084734787182389</v>
+        <v>0.1283336673991909</v>
       </c>
       <c r="D55">
-        <v>0.001838270929977569</v>
+        <v>-0.04214957982001461</v>
       </c>
       <c r="E55">
-        <v>0.002990918520132127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.00569623280234014</v>
+      </c>
+      <c r="F55">
+        <v>-0.004408388636970093</v>
+      </c>
+      <c r="G55">
+        <v>-0.01298186863398255</v>
+      </c>
+      <c r="H55">
+        <v>-0.007978612696119748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1335900870249695</v>
+        <v>0.06344140863446869</v>
       </c>
       <c r="C56">
-        <v>0.1490105872545115</v>
+        <v>0.1895806615129165</v>
       </c>
       <c r="D56">
-        <v>0.02364201032826446</v>
+        <v>-0.03307723810552002</v>
       </c>
       <c r="E56">
-        <v>-0.003102891701422642</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03311683945220212</v>
+      </c>
+      <c r="F56">
+        <v>-0.01035860642503949</v>
+      </c>
+      <c r="G56">
+        <v>-0.06227849219558865</v>
+      </c>
+      <c r="H56">
+        <v>-2.024971739483264e-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004290349173010888</v>
+        <v>0.007693608439868295</v>
       </c>
       <c r="C58">
-        <v>0.01820187397212817</v>
+        <v>0.06323082487284064</v>
       </c>
       <c r="D58">
-        <v>0.2127325512186462</v>
+        <v>0.2697957279846029</v>
       </c>
       <c r="E58">
-        <v>-0.1719183821435953</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.0716196890925349</v>
+      </c>
+      <c r="F58">
+        <v>-0.1414105359740084</v>
+      </c>
+      <c r="G58">
+        <v>-0.1657874519291589</v>
+      </c>
+      <c r="H58">
+        <v>0.0911340752388803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1878553076075976</v>
+        <v>0.2569564686247825</v>
       </c>
       <c r="C59">
-        <v>-0.1366317384213706</v>
+        <v>-0.06314071869158136</v>
       </c>
       <c r="D59">
-        <v>0.04492818036757962</v>
+        <v>0.04601448333596349</v>
       </c>
       <c r="E59">
-        <v>-0.03981168257075405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01589271198936054</v>
+      </c>
+      <c r="F59">
+        <v>-0.01756761616529657</v>
+      </c>
+      <c r="G59">
+        <v>-0.01870526590482249</v>
+      </c>
+      <c r="H59">
+        <v>-0.03659242153075322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1849297928666521</v>
+        <v>0.1571568961231319</v>
       </c>
       <c r="C60">
-        <v>0.0948349285416181</v>
+        <v>0.1623595829559995</v>
       </c>
       <c r="D60">
-        <v>0.1272491401994279</v>
+        <v>0.03783813289413673</v>
       </c>
       <c r="E60">
-        <v>0.07724546236930456</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1197018672946979</v>
+      </c>
+      <c r="F60">
+        <v>0.1959223947461403</v>
+      </c>
+      <c r="G60">
+        <v>0.2633976891462942</v>
+      </c>
+      <c r="H60">
+        <v>-0.1008840200161737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02635372722782238</v>
+        <v>0.01593238734563503</v>
       </c>
       <c r="C61">
-        <v>0.05696992413509275</v>
+        <v>0.08056634286785375</v>
       </c>
       <c r="D61">
-        <v>0.08820041339366981</v>
+        <v>0.06462584921296434</v>
       </c>
       <c r="E61">
-        <v>-0.009892898315467955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06101317649713084</v>
+      </c>
+      <c r="F61">
+        <v>0.01520548770118683</v>
+      </c>
+      <c r="G61">
+        <v>0.005797493805928242</v>
+      </c>
+      <c r="H61">
+        <v>-0.00348493657057295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01166826758271802</v>
+        <v>0.01610571894289385</v>
       </c>
       <c r="C63">
-        <v>0.02532010708860992</v>
+        <v>0.04363446988115512</v>
       </c>
       <c r="D63">
-        <v>0.07957530692268257</v>
+        <v>0.052370856474481</v>
       </c>
       <c r="E63">
-        <v>-0.03559070695311905</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07650466430589931</v>
+      </c>
+      <c r="F63">
+        <v>-0.02395656964908058</v>
+      </c>
+      <c r="G63">
+        <v>-0.01164413106297991</v>
+      </c>
+      <c r="H63">
+        <v>0.007198289586719237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05456777781367785</v>
+        <v>0.01909886589693563</v>
       </c>
       <c r="C64">
-        <v>0.08697310638734934</v>
+        <v>0.103242382805639</v>
       </c>
       <c r="D64">
-        <v>0.02587458160153727</v>
+        <v>0.01350102309485308</v>
       </c>
       <c r="E64">
-        <v>-0.02663565501153238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03440758291594234</v>
+      </c>
+      <c r="F64">
+        <v>-0.01912749943213615</v>
+      </c>
+      <c r="G64">
+        <v>0.02125010625940623</v>
+      </c>
+      <c r="H64">
+        <v>0.03264737882766865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02644062409041299</v>
+        <v>0.02573450146239304</v>
       </c>
       <c r="C65">
-        <v>0.01782990213015391</v>
+        <v>0.0450280683538821</v>
       </c>
       <c r="D65">
-        <v>0.09865318565391921</v>
+        <v>0.09813313982472924</v>
       </c>
       <c r="E65">
-        <v>-0.03863686420566916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.06838594868191376</v>
+      </c>
+      <c r="F65">
+        <v>0.006379231335122488</v>
+      </c>
+      <c r="G65">
+        <v>0.03877679559972534</v>
+      </c>
+      <c r="H65">
+        <v>0.03059396543339746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02264289636547781</v>
+        <v>0.009361494800872377</v>
       </c>
       <c r="C66">
-        <v>0.07246006733560262</v>
+        <v>0.1062036525638358</v>
       </c>
       <c r="D66">
-        <v>0.1317917457042975</v>
+        <v>0.1116829779646996</v>
       </c>
       <c r="E66">
-        <v>-0.02779896908392175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.07715640120959702</v>
+      </c>
+      <c r="F66">
+        <v>0.005614677759353949</v>
+      </c>
+      <c r="G66">
+        <v>-0.02188280488940894</v>
+      </c>
+      <c r="H66">
+        <v>0.01362422194729521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02258790509479963</v>
+        <v>0.02186209977941185</v>
       </c>
       <c r="C67">
-        <v>0.02008878331406767</v>
+        <v>0.03681269897353612</v>
       </c>
       <c r="D67">
-        <v>0.05638975958908579</v>
+        <v>0.04493182237330877</v>
       </c>
       <c r="E67">
-        <v>0.003376006787013713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0310922611775912</v>
+      </c>
+      <c r="F67">
+        <v>0.02574692409730939</v>
+      </c>
+      <c r="G67">
+        <v>-0.01732873715831775</v>
+      </c>
+      <c r="H67">
+        <v>0.02027876751655848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2045832514301274</v>
+        <v>0.2782987970809783</v>
       </c>
       <c r="C68">
-        <v>-0.1490958819583247</v>
+        <v>-0.0743548221807963</v>
       </c>
       <c r="D68">
-        <v>0.01831722358282999</v>
+        <v>0.02664522784938993</v>
       </c>
       <c r="E68">
-        <v>-0.02464291961322949</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.001766038533039094</v>
+      </c>
+      <c r="F68">
+        <v>-0.02875270667274784</v>
+      </c>
+      <c r="G68">
+        <v>-0.06199258796730846</v>
+      </c>
+      <c r="H68">
+        <v>0.0006785208950974795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05719937580491662</v>
+        <v>0.01754263973647976</v>
       </c>
       <c r="C69">
-        <v>0.1180343891328617</v>
+        <v>0.1149825116831505</v>
       </c>
       <c r="D69">
-        <v>0.07758286913996611</v>
+        <v>0.01857992131427451</v>
       </c>
       <c r="E69">
-        <v>-0.02361665421530098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01429418716145756</v>
+      </c>
+      <c r="F69">
+        <v>0.01712750406486099</v>
+      </c>
+      <c r="G69">
+        <v>0.006253175437590124</v>
+      </c>
+      <c r="H69">
+        <v>-0.006611074753794347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2194849753670033</v>
+        <v>0.2702000652222947</v>
       </c>
       <c r="C71">
-        <v>-0.1735031338009619</v>
+        <v>-0.09032282325660487</v>
       </c>
       <c r="D71">
-        <v>0.0150153803246271</v>
+        <v>0.00773412649238789</v>
       </c>
       <c r="E71">
-        <v>-0.01118991563022674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007891455882070342</v>
+      </c>
+      <c r="F71">
+        <v>-0.01526767957123989</v>
+      </c>
+      <c r="G71">
+        <v>-0.04669086747601749</v>
+      </c>
+      <c r="H71">
+        <v>0.0158501502892286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1008257725596647</v>
+        <v>0.06529411745342625</v>
       </c>
       <c r="C72">
-        <v>0.07371748152877046</v>
+        <v>0.124395984033283</v>
       </c>
       <c r="D72">
-        <v>0.1198392063016447</v>
+        <v>0.05707241200003564</v>
       </c>
       <c r="E72">
-        <v>-0.01590260589383491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08617014081886307</v>
+      </c>
+      <c r="F72">
+        <v>0.01790636644772865</v>
+      </c>
+      <c r="G72">
+        <v>0.03508708773790609</v>
+      </c>
+      <c r="H72">
+        <v>-0.002615168699077052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1749899832848473</v>
+        <v>0.1601825605239201</v>
       </c>
       <c r="C73">
-        <v>0.06887288931954129</v>
+        <v>0.1581184593671821</v>
       </c>
       <c r="D73">
-        <v>0.2132678841193598</v>
+        <v>0.06140694564693921</v>
       </c>
       <c r="E73">
-        <v>0.1279140849332973</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3019263456220588</v>
+      </c>
+      <c r="F73">
+        <v>0.2898721456401649</v>
+      </c>
+      <c r="G73">
+        <v>0.425410941297692</v>
+      </c>
+      <c r="H73">
+        <v>-0.07344615934995008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1037921016804488</v>
+        <v>0.0545100965172293</v>
       </c>
       <c r="C74">
-        <v>0.1160954022968104</v>
+        <v>0.1410687011823906</v>
       </c>
       <c r="D74">
-        <v>-0.04946659631577406</v>
+        <v>-0.04904448804953178</v>
       </c>
       <c r="E74">
-        <v>-0.0172465066876703</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02858205782155936</v>
+      </c>
+      <c r="F74">
+        <v>-0.03281966546811513</v>
+      </c>
+      <c r="G74">
+        <v>0.006819044170411503</v>
+      </c>
+      <c r="H74">
+        <v>0.0009033775591551665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2230546810444534</v>
+        <v>0.1035909343063965</v>
       </c>
       <c r="C75">
-        <v>0.2029339723781723</v>
+        <v>0.2603734261199488</v>
       </c>
       <c r="D75">
-        <v>-0.06058441120991329</v>
+        <v>-0.1183098902698766</v>
       </c>
       <c r="E75">
-        <v>0.07051996586833126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.118501935146041</v>
+      </c>
+      <c r="F75">
+        <v>0.04258593449106163</v>
+      </c>
+      <c r="G75">
+        <v>-0.1123069742336226</v>
+      </c>
+      <c r="H75">
+        <v>0.06570453467832919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1342716874977114</v>
+        <v>0.06245800655332916</v>
       </c>
       <c r="C76">
-        <v>0.1380511144698469</v>
+        <v>0.1768494881497141</v>
       </c>
       <c r="D76">
-        <v>-0.000128166975458672</v>
+        <v>-0.05157233001018054</v>
       </c>
       <c r="E76">
-        <v>0.00939031056798692</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03731251999454818</v>
+      </c>
+      <c r="F76">
+        <v>0.001196693195182207</v>
+      </c>
+      <c r="G76">
+        <v>-0.04572613765188798</v>
+      </c>
+      <c r="H76">
+        <v>0.01296168413543966</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01473602467290143</v>
+        <v>0.001804814991436998</v>
       </c>
       <c r="C77">
-        <v>0.07545687941623828</v>
+        <v>0.1153466812095096</v>
       </c>
       <c r="D77">
-        <v>0.1804574808545371</v>
+        <v>0.4883714312259057</v>
       </c>
       <c r="E77">
-        <v>-0.179024830222003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7663677575641321</v>
+      </c>
+      <c r="F77">
+        <v>0.2013901310196566</v>
+      </c>
+      <c r="G77">
+        <v>0.2194054701361239</v>
+      </c>
+      <c r="H77">
+        <v>0.01248927168392831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03338998035216083</v>
+        <v>0.02236349741448745</v>
       </c>
       <c r="C78">
-        <v>0.07223497063935724</v>
+        <v>0.09410977242418701</v>
       </c>
       <c r="D78">
-        <v>0.1453760073323536</v>
+        <v>0.0878307997193378</v>
       </c>
       <c r="E78">
-        <v>-0.0934393036419747</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07735516781252239</v>
+      </c>
+      <c r="F78">
+        <v>-0.04726554365732375</v>
+      </c>
+      <c r="G78">
+        <v>-0.08521018679685874</v>
+      </c>
+      <c r="H78">
+        <v>-0.04101249111878292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1084715444781403</v>
+        <v>0.05129083918591208</v>
       </c>
       <c r="C79">
-        <v>0.1990271730955412</v>
+        <v>0.2082375247629388</v>
       </c>
       <c r="D79">
-        <v>-0.4794961346884765</v>
+        <v>-0.1143928161238992</v>
       </c>
       <c r="E79">
-        <v>-0.7494352609963182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1049558298579741</v>
+      </c>
+      <c r="F79">
+        <v>-0.7884788176750275</v>
+      </c>
+      <c r="G79">
+        <v>0.4382422762298076</v>
+      </c>
+      <c r="H79">
+        <v>0.01038820649286429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002703632902357625</v>
+        <v>0.006852998217235026</v>
       </c>
       <c r="C80">
-        <v>0.04438513272009217</v>
+        <v>0.04377607269297586</v>
       </c>
       <c r="D80">
-        <v>0.04802820552461905</v>
+        <v>0.03236126935797084</v>
       </c>
       <c r="E80">
-        <v>-0.009196279078490358</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06109570633742907</v>
+      </c>
+      <c r="F80">
+        <v>-0.003100855759119117</v>
+      </c>
+      <c r="G80">
+        <v>-0.01527496873892604</v>
+      </c>
+      <c r="H80">
+        <v>-0.08929279968202374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1117065543262626</v>
+        <v>0.03992134349246675</v>
       </c>
       <c r="C81">
-        <v>0.1356421802584081</v>
+        <v>0.160324744385787</v>
       </c>
       <c r="D81">
-        <v>-0.07900257108420954</v>
+        <v>-0.07158701744119497</v>
       </c>
       <c r="E81">
-        <v>-0.004311401147489485</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06118638028668542</v>
+      </c>
+      <c r="F81">
+        <v>-0.0560971623220028</v>
+      </c>
+      <c r="G81">
+        <v>-0.0747127146736201</v>
+      </c>
+      <c r="H81">
+        <v>-0.0126604612418224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2367281112886235</v>
+        <v>0.08857168430320833</v>
       </c>
       <c r="C82">
-        <v>0.298173340721834</v>
+        <v>0.3022807350809114</v>
       </c>
       <c r="D82">
-        <v>-0.1117052122864771</v>
+        <v>-0.2252582828000139</v>
       </c>
       <c r="E82">
-        <v>0.2275933058681878</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1031646141847722</v>
+      </c>
+      <c r="F82">
+        <v>0.1281152203044026</v>
+      </c>
+      <c r="G82">
+        <v>-0.1364308146819135</v>
+      </c>
+      <c r="H82">
+        <v>-0.01767027925184116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01121267813432034</v>
+        <v>-0.00795006134383245</v>
       </c>
       <c r="C83">
-        <v>0.05245813685744491</v>
+        <v>0.01954979610820108</v>
       </c>
       <c r="D83">
-        <v>0.01180733094218735</v>
+        <v>0.03186494480901511</v>
       </c>
       <c r="E83">
-        <v>-0.05000929524494002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08860068963794925</v>
+      </c>
+      <c r="F83">
+        <v>-0.07702360250581175</v>
+      </c>
+      <c r="G83">
+        <v>-0.1523729359530957</v>
+      </c>
+      <c r="H83">
+        <v>-0.9195578139872538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.002282495409829811</v>
+        <v>-0.003734769971348337</v>
       </c>
       <c r="C84">
-        <v>0.0034181920642169</v>
+        <v>0.01650377409267394</v>
       </c>
       <c r="D84">
-        <v>0.007418095292250783</v>
+        <v>0.04238021913107329</v>
       </c>
       <c r="E84">
-        <v>0.003489320941619932</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01241914112822637</v>
+      </c>
+      <c r="F84">
+        <v>-0.02787557451516663</v>
+      </c>
+      <c r="G84">
+        <v>-0.05784559825406932</v>
+      </c>
+      <c r="H84">
+        <v>0.05351296762325725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1403102778362972</v>
+        <v>0.05888947817300553</v>
       </c>
       <c r="C85">
-        <v>0.1436923674553073</v>
+        <v>0.1772678112543159</v>
       </c>
       <c r="D85">
-        <v>-0.07832787949752198</v>
+        <v>-0.1085035764327574</v>
       </c>
       <c r="E85">
-        <v>-0.01380007539498453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02224529653255009</v>
+      </c>
+      <c r="F85">
+        <v>-0.0668570494534369</v>
+      </c>
+      <c r="G85">
+        <v>-0.02519783827293714</v>
+      </c>
+      <c r="H85">
+        <v>0.01696552713689284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02094967931013115</v>
+        <v>0.01721037494111493</v>
       </c>
       <c r="C86">
-        <v>0.007913825530321794</v>
+        <v>0.03938476866233607</v>
       </c>
       <c r="D86">
-        <v>0.1031065031231188</v>
+        <v>0.1120769479332765</v>
       </c>
       <c r="E86">
-        <v>-0.05258101820133677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.002262322770553658</v>
+      </c>
+      <c r="F86">
+        <v>-0.01814215810981173</v>
+      </c>
+      <c r="G86">
+        <v>0.01536329795036686</v>
+      </c>
+      <c r="H86">
+        <v>0.0283609484786969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02254836274961762</v>
+        <v>0.01293056602087769</v>
       </c>
       <c r="C87">
-        <v>0.03189925269761643</v>
+        <v>0.06560774667417764</v>
       </c>
       <c r="D87">
-        <v>0.1345158992623873</v>
+        <v>0.1319816022706209</v>
       </c>
       <c r="E87">
-        <v>-0.09367929658909255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.04670019834656441</v>
+      </c>
+      <c r="F87">
+        <v>-0.04495674531680031</v>
+      </c>
+      <c r="G87">
+        <v>-0.07862266894230449</v>
+      </c>
+      <c r="H87">
+        <v>-0.009191973362806923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0499996957332054</v>
+        <v>0.03535269770463182</v>
       </c>
       <c r="C88">
-        <v>0.04602889570459451</v>
+        <v>0.06999114590740176</v>
       </c>
       <c r="D88">
-        <v>0.002105253047603943</v>
+        <v>0.01023528603111403</v>
       </c>
       <c r="E88">
-        <v>-0.02054406854513092</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03163345267066511</v>
+      </c>
+      <c r="F88">
+        <v>-0.01885545362717301</v>
+      </c>
+      <c r="G88">
+        <v>0.009502150097967014</v>
+      </c>
+      <c r="H88">
+        <v>0.0189473118033203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.32779099837456</v>
+        <v>0.3957680385586024</v>
       </c>
       <c r="C89">
-        <v>-0.3155922080244683</v>
+        <v>-0.1688494524375767</v>
       </c>
       <c r="D89">
-        <v>0.03634836954686434</v>
+        <v>0.05562718190986416</v>
       </c>
       <c r="E89">
-        <v>-0.1177438025686396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03515977726770563</v>
+      </c>
+      <c r="F89">
+        <v>-0.06346053870168095</v>
+      </c>
+      <c r="G89">
+        <v>-0.07000202743772715</v>
+      </c>
+      <c r="H89">
+        <v>-0.09039163052640181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2617330300192762</v>
+        <v>0.3208785636547357</v>
       </c>
       <c r="C90">
-        <v>-0.2326923613922411</v>
+        <v>-0.1112810512008656</v>
       </c>
       <c r="D90">
-        <v>0.05886006473204378</v>
+        <v>0.03285805159439022</v>
       </c>
       <c r="E90">
-        <v>-0.006558145622879248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.001057598530621744</v>
+      </c>
+      <c r="F90">
+        <v>0.005594158145807819</v>
+      </c>
+      <c r="G90">
+        <v>-0.06561469820970005</v>
+      </c>
+      <c r="H90">
+        <v>-0.00543759134009764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1474186989104533</v>
+        <v>0.07017700978449415</v>
       </c>
       <c r="C91">
-        <v>0.1924811512495804</v>
+        <v>0.2030261958447862</v>
       </c>
       <c r="D91">
-        <v>-0.09760426710196007</v>
+        <v>-0.1002692262330212</v>
       </c>
       <c r="E91">
-        <v>-0.03820746690289062</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08407902782973212</v>
+      </c>
+      <c r="F91">
+        <v>-0.05925598287313218</v>
+      </c>
+      <c r="G91">
+        <v>-0.008427669922018897</v>
+      </c>
+      <c r="H91">
+        <v>-0.01994944626111015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2440665678119956</v>
+        <v>0.331410661343434</v>
       </c>
       <c r="C92">
-        <v>-0.2590931184536325</v>
+        <v>-0.1529822708062329</v>
       </c>
       <c r="D92">
-        <v>-0.05041128307374994</v>
+        <v>0.02018237656812843</v>
       </c>
       <c r="E92">
-        <v>-0.02371868610548441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06860401029831295</v>
+      </c>
+      <c r="F92">
+        <v>-0.03561520892102613</v>
+      </c>
+      <c r="G92">
+        <v>-0.006641476366848068</v>
+      </c>
+      <c r="H92">
+        <v>0.1302597258029185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2832454787532863</v>
+        <v>0.3281450838184047</v>
       </c>
       <c r="C93">
-        <v>-0.2464755245829543</v>
+        <v>-0.1271223338393032</v>
       </c>
       <c r="D93">
-        <v>-0.01862833244172759</v>
+        <v>-0.02471579699891088</v>
       </c>
       <c r="E93">
-        <v>0.001380645686295224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01138265216688711</v>
+      </c>
+      <c r="F93">
+        <v>-0.0124276992490248</v>
+      </c>
+      <c r="G93">
+        <v>0.0217102635204942</v>
+      </c>
+      <c r="H93">
+        <v>0.03612542976195597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2726863624489808</v>
+        <v>0.1267950974379629</v>
       </c>
       <c r="C94">
-        <v>0.2696990240033214</v>
+        <v>0.3242659215571783</v>
       </c>
       <c r="D94">
-        <v>-0.2196010685809616</v>
+        <v>-0.3501546228739429</v>
       </c>
       <c r="E94">
-        <v>0.3024533826035327</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.134560243932283</v>
+      </c>
+      <c r="F94">
+        <v>0.1373062649858662</v>
+      </c>
+      <c r="G94">
+        <v>-0.2938319970411205</v>
+      </c>
+      <c r="H94">
+        <v>0.07247418265913408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01038422937444562</v>
+        <v>0.0179047944852951</v>
       </c>
       <c r="C95">
-        <v>0.04447683990185833</v>
+        <v>0.07167351505931958</v>
       </c>
       <c r="D95">
-        <v>0.1048639486197302</v>
+        <v>0.1389369596534444</v>
       </c>
       <c r="E95">
-        <v>-0.07117196655151532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09007073517626171</v>
+      </c>
+      <c r="F95">
+        <v>0.03825063789254184</v>
+      </c>
+      <c r="G95">
+        <v>0.06955402410118931</v>
+      </c>
+      <c r="H95">
+        <v>0.0474256996813599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002537894472735449</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001073132038088079</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1.540456141939013e-05</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003818820436611002</v>
+      </c>
+      <c r="F97">
+        <v>-0.0008109774288324582</v>
+      </c>
+      <c r="G97">
+        <v>-0.002037786141632615</v>
+      </c>
+      <c r="H97">
+        <v>0.004972285955953048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1535069622767591</v>
+        <v>0.1371314818461146</v>
       </c>
       <c r="C98">
-        <v>0.09361365300069045</v>
+        <v>0.1614686396335678</v>
       </c>
       <c r="D98">
-        <v>0.138208901179758</v>
+        <v>0.01917384800150646</v>
       </c>
       <c r="E98">
-        <v>0.1221929977735688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.190960407410174</v>
+      </c>
+      <c r="F98">
+        <v>0.2385486289501428</v>
+      </c>
+      <c r="G98">
+        <v>0.3037984106004028</v>
+      </c>
+      <c r="H98">
+        <v>-0.08431241822737022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-9.438667403380255e-05</v>
+        <v>0.003991058244184988</v>
       </c>
       <c r="C101">
-        <v>0.0214843441108004</v>
+        <v>0.04079119195632069</v>
       </c>
       <c r="D101">
-        <v>0.07532619173859703</v>
+        <v>0.09063567909452848</v>
       </c>
       <c r="E101">
-        <v>-0.04031774180360866</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.09595247196615977</v>
+      </c>
+      <c r="F101">
+        <v>-0.03188899421478807</v>
+      </c>
+      <c r="G101">
+        <v>-0.01889489520970386</v>
+      </c>
+      <c r="H101">
+        <v>-0.04291789097383781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1004799072071066</v>
+        <v>0.02475471972721477</v>
       </c>
       <c r="C102">
-        <v>0.1631807118427875</v>
+        <v>0.141448234886467</v>
       </c>
       <c r="D102">
-        <v>-0.01617066227560376</v>
+        <v>-0.09633005662013407</v>
       </c>
       <c r="E102">
-        <v>0.09604847526746357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05540704623734509</v>
+      </c>
+      <c r="F102">
+        <v>0.08163758966724854</v>
+      </c>
+      <c r="G102">
+        <v>-0.01452206457596616</v>
+      </c>
+      <c r="H102">
+        <v>-0.0264998193481779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
